--- a/Data_clean/MCAS/Estados_US/Edos_USA_2017/MISSOURI_2017.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2017/MISSOURI_2017.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D915"/>
+  <dimension ref="A1:D909"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -426,7 +426,7 @@
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C5">
@@ -439,7 +439,7 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C6">
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C7">
@@ -509,7 +509,7 @@
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>Playas de Rosarito</t>
+          <t>Playas De Rosarito</t>
         </is>
       </c>
       <c r="C11">
@@ -667,7 +667,7 @@
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C22">
@@ -693,7 +693,7 @@
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t>Benemérito de las Américas</t>
+          <t>Benemérito De Las Américas</t>
         </is>
       </c>
       <c r="C24">
@@ -1296,7 +1296,7 @@
     <row r="70">
       <c r="B70" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C70">
@@ -1322,7 +1322,7 @@
     <row r="72">
       <c r="B72" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C72">
@@ -1504,7 +1504,7 @@
     <row r="86">
       <c r="B86" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C86">
@@ -1595,7 +1595,7 @@
     <row r="93">
       <c r="B93" t="inlineStr">
         <is>
-          <t>Valle de Zaragoza</t>
+          <t>Valle De Zaragoza</t>
         </is>
       </c>
       <c r="C93">
@@ -1878,7 +1878,7 @@
     <row r="114">
       <c r="B114" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C114">
@@ -1904,7 +1904,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -1961,7 +1961,7 @@
     <row r="120">
       <c r="B120" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C120">
@@ -2148,7 +2148,7 @@
     <row r="134">
       <c r="B134" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C134">
@@ -2304,7 +2304,7 @@
     <row r="146">
       <c r="B146" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C146">
@@ -2343,7 +2343,7 @@
     <row r="149">
       <c r="B149" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C149">
@@ -2408,7 +2408,7 @@
     <row r="154">
       <c r="B154" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C154">
@@ -2421,7 +2421,7 @@
     <row r="155">
       <c r="B155" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C155">
@@ -2434,7 +2434,7 @@
     <row r="156">
       <c r="B156" t="inlineStr">
         <is>
-          <t>San Luis del Cordero</t>
+          <t>San Luis Del Cordero</t>
         </is>
       </c>
       <c r="C156">
@@ -2538,12 +2538,12 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C164">
@@ -2582,7 +2582,7 @@
     <row r="167">
       <c r="B167" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C167">
@@ -2621,7 +2621,7 @@
     <row r="170">
       <c r="B170" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C170">
@@ -2725,7 +2725,7 @@
     <row r="178">
       <c r="B178" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C178">
@@ -2777,7 +2777,7 @@
     <row r="182">
       <c r="B182" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C182">
@@ -2816,7 +2816,7 @@
     <row r="185">
       <c r="B185" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C185">
@@ -2933,7 +2933,7 @@
     <row r="194">
       <c r="B194" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C194">
@@ -2998,7 +2998,7 @@
     <row r="199">
       <c r="B199" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C199">
@@ -3102,7 +3102,7 @@
     <row r="207">
       <c r="B207" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C207">
@@ -3154,7 +3154,7 @@
     <row r="211">
       <c r="B211" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C211">
@@ -3206,7 +3206,7 @@
     <row r="215">
       <c r="B215" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C215">
@@ -3219,7 +3219,7 @@
     <row r="216">
       <c r="B216" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C216">
@@ -3232,7 +3232,7 @@
     <row r="217">
       <c r="B217" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C217">
@@ -3341,7 +3341,7 @@
     <row r="225">
       <c r="B225" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C225">
@@ -3354,7 +3354,7 @@
     <row r="226">
       <c r="B226" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C226">
@@ -3367,7 +3367,7 @@
     <row r="227">
       <c r="B227" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C227">
@@ -3432,7 +3432,7 @@
     <row r="232">
       <c r="B232" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C232">
@@ -3484,7 +3484,7 @@
     <row r="236">
       <c r="B236" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C236">
@@ -3614,7 +3614,7 @@
     <row r="246">
       <c r="B246" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C246">
@@ -3640,7 +3640,7 @@
     <row r="248">
       <c r="B248" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C248">
@@ -3653,7 +3653,7 @@
     <row r="249">
       <c r="B249" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C249">
@@ -3666,7 +3666,7 @@
     <row r="250">
       <c r="B250" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C250">
@@ -3679,7 +3679,7 @@
     <row r="251">
       <c r="B251" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C251">
@@ -3731,7 +3731,7 @@
     <row r="255">
       <c r="B255" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C255">
@@ -3801,7 +3801,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C260">
@@ -3827,7 +3827,7 @@
     <row r="262">
       <c r="B262" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C262">
@@ -3840,7 +3840,7 @@
     <row r="263">
       <c r="B263" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C263">
@@ -3879,7 +3879,7 @@
     <row r="266">
       <c r="B266" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C266">
@@ -3892,7 +3892,7 @@
     <row r="267">
       <c r="B267" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C267">
@@ -3918,7 +3918,7 @@
     <row r="269">
       <c r="B269" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C269">
@@ -3931,7 +3931,7 @@
     <row r="270">
       <c r="B270" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C270">
@@ -3957,7 +3957,7 @@
     <row r="272">
       <c r="B272" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C272">
@@ -3970,7 +3970,7 @@
     <row r="273">
       <c r="B273" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C273">
@@ -3983,7 +3983,7 @@
     <row r="274">
       <c r="B274" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C274">
@@ -3996,7 +3996,7 @@
     <row r="275">
       <c r="B275" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C275">
@@ -4035,7 +4035,7 @@
     <row r="278">
       <c r="B278" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C278">
@@ -4048,7 +4048,7 @@
     <row r="279">
       <c r="B279" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C279">
@@ -4087,7 +4087,7 @@
     <row r="282">
       <c r="B282" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C282">
@@ -4152,7 +4152,7 @@
     <row r="287">
       <c r="B287" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C287">
@@ -4165,7 +4165,7 @@
     <row r="288">
       <c r="B288" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C288">
@@ -4191,7 +4191,7 @@
     <row r="290">
       <c r="B290" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C290">
@@ -4334,7 +4334,7 @@
     <row r="301">
       <c r="B301" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C301">
@@ -4360,7 +4360,7 @@
     <row r="303">
       <c r="B303" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C303">
@@ -4386,7 +4386,7 @@
     <row r="305">
       <c r="B305" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C305">
@@ -4399,7 +4399,7 @@
     <row r="306">
       <c r="B306" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C306">
@@ -4438,7 +4438,7 @@
     <row r="309">
       <c r="B309" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C309">
@@ -4451,7 +4451,7 @@
     <row r="310">
       <c r="B310" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C310">
@@ -4534,7 +4534,7 @@
     <row r="316">
       <c r="B316" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C316">
@@ -4573,7 +4573,7 @@
     <row r="319">
       <c r="B319" t="inlineStr">
         <is>
-          <t>Atotonilco de Tula</t>
+          <t>Atotonilco De Tula</t>
         </is>
       </c>
       <c r="C319">
@@ -4612,7 +4612,7 @@
     <row r="322">
       <c r="B322" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C322">
@@ -4664,7 +4664,7 @@
     <row r="326">
       <c r="B326" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C326">
@@ -4703,7 +4703,7 @@
     <row r="329">
       <c r="B329" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C329">
@@ -4755,7 +4755,7 @@
     <row r="333">
       <c r="B333" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C333">
@@ -4768,7 +4768,7 @@
     <row r="334">
       <c r="B334" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C334">
@@ -4781,7 +4781,7 @@
     <row r="335">
       <c r="B335" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C335">
@@ -4794,7 +4794,7 @@
     <row r="336">
       <c r="B336" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C336">
@@ -4807,7 +4807,7 @@
     <row r="337">
       <c r="B337" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C337">
@@ -4833,7 +4833,7 @@
     <row r="339">
       <c r="B339" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C339">
@@ -4872,7 +4872,7 @@
     <row r="342">
       <c r="B342" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C342">
@@ -4885,7 +4885,7 @@
     <row r="343">
       <c r="B343" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C343">
@@ -4898,7 +4898,7 @@
     <row r="344">
       <c r="B344" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C344">
@@ -4924,7 +4924,7 @@
     <row r="346">
       <c r="B346" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C346">
@@ -4976,7 +4976,7 @@
     <row r="350">
       <c r="B350" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C350">
@@ -4989,7 +4989,7 @@
     <row r="351">
       <c r="B351" t="inlineStr">
         <is>
-          <t>Villa de Tezontepec</t>
+          <t>Villa De Tezontepec</t>
         </is>
       </c>
       <c r="C351">
@@ -5028,7 +5028,7 @@
     <row r="354">
       <c r="B354" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C354">
@@ -5041,7 +5041,7 @@
     <row r="355">
       <c r="B355" t="inlineStr">
         <is>
-          <t>Zapotlán de Juárez</t>
+          <t>Zapotlán De Juárez</t>
         </is>
       </c>
       <c r="C355">
@@ -5098,7 +5098,7 @@
     <row r="359">
       <c r="B359" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C359">
@@ -5111,7 +5111,7 @@
     <row r="360">
       <c r="B360" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C360">
@@ -5176,7 +5176,7 @@
     <row r="365">
       <c r="B365" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C365">
@@ -5189,7 +5189,7 @@
     <row r="366">
       <c r="B366" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C366">
@@ -5280,7 +5280,7 @@
     <row r="373">
       <c r="B373" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C373">
@@ -5319,7 +5319,7 @@
     <row r="376">
       <c r="B376" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C376">
@@ -5397,7 +5397,7 @@
     <row r="382">
       <c r="B382" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C382">
@@ -5475,7 +5475,7 @@
     <row r="388">
       <c r="B388" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C388">
@@ -5488,7 +5488,7 @@
     <row r="389">
       <c r="B389" t="inlineStr">
         <is>
-          <t>San Juanito de Escobedo</t>
+          <t>San Juanito De Escobedo</t>
         </is>
       </c>
       <c r="C389">
@@ -5501,7 +5501,7 @@
     <row r="390">
       <c r="B390" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C390">
@@ -5527,7 +5527,7 @@
     <row r="392">
       <c r="B392" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C392">
@@ -5566,7 +5566,7 @@
     <row r="395">
       <c r="B395" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C395">
@@ -5579,7 +5579,7 @@
     <row r="396">
       <c r="B396" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C396">
@@ -5605,7 +5605,7 @@
     <row r="398">
       <c r="B398" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C398">
@@ -5670,7 +5670,7 @@
     <row r="403">
       <c r="B403" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C403">
@@ -5722,7 +5722,7 @@
     <row r="407">
       <c r="B407" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C407">
@@ -5761,7 +5761,7 @@
     <row r="410">
       <c r="B410" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C410">
@@ -5974,7 +5974,7 @@
     <row r="426">
       <c r="B426" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C426">
@@ -6598,7 +6598,7 @@
     <row r="474">
       <c r="B474" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C474">
@@ -6902,7 +6902,7 @@
     <row r="497">
       <c r="B497" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C497">
@@ -6941,7 +6941,7 @@
     <row r="500">
       <c r="B500" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C500">
@@ -7050,7 +7050,7 @@
     <row r="508">
       <c r="B508" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C508">
@@ -7159,7 +7159,7 @@
     <row r="516">
       <c r="B516" t="inlineStr">
         <is>
-          <t>Ciénega de Flores</t>
+          <t>Ciénega De Flores</t>
         </is>
       </c>
       <c r="C516">
@@ -7211,7 +7211,7 @@
     <row r="520">
       <c r="B520" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C520">
@@ -7263,7 +7263,7 @@
     <row r="524">
       <c r="B524" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C524">
@@ -7307,7 +7307,7 @@
     <row r="527">
       <c r="B527" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C527">
@@ -7320,7 +7320,7 @@
     <row r="528">
       <c r="B528" t="inlineStr">
         <is>
-          <t>Ayoquezco de Aldama</t>
+          <t>Ayoquezco De Aldama</t>
         </is>
       </c>
       <c r="C528">
@@ -7346,7 +7346,7 @@
     <row r="530">
       <c r="B530" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C530">
@@ -7372,7 +7372,7 @@
     <row r="532">
       <c r="B532" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C532">
@@ -7385,7 +7385,7 @@
     <row r="533">
       <c r="B533" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C533">
@@ -7398,7 +7398,7 @@
     <row r="534">
       <c r="B534" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C534">
@@ -7437,7 +7437,7 @@
     <row r="537">
       <c r="B537" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C537">
@@ -7450,7 +7450,7 @@
     <row r="538">
       <c r="B538" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C538">
@@ -7723,7 +7723,7 @@
     <row r="559">
       <c r="B559" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Teposcolula</t>
+          <t>San Pedro Y San Pablo Teposcolula</t>
         </is>
       </c>
       <c r="C559">
@@ -7736,7 +7736,7 @@
     <row r="560">
       <c r="B560" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Tequixtepec</t>
+          <t>San Pedro Y San Pablo Tequixtepec</t>
         </is>
       </c>
       <c r="C560">
@@ -8087,7 +8087,7 @@
     <row r="587">
       <c r="B587" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C587">
@@ -8191,7 +8191,7 @@
     <row r="595">
       <c r="B595" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C595">
@@ -8204,7 +8204,7 @@
     <row r="596">
       <c r="B596" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C596">
@@ -8217,7 +8217,7 @@
     <row r="597">
       <c r="B597" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C597">
@@ -8230,7 +8230,7 @@
     <row r="598">
       <c r="B598" t="inlineStr">
         <is>
-          <t>Villa de Tututepec</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C598">
@@ -8243,7 +8243,7 @@
     <row r="599">
       <c r="B599" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C599">
@@ -8256,7 +8256,7 @@
     <row r="600">
       <c r="B600" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C600">
@@ -8269,7 +8269,7 @@
     <row r="601">
       <c r="B601" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C601">
@@ -8521,7 +8521,7 @@
     <row r="620">
       <c r="B620" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C620">
@@ -8547,7 +8547,7 @@
     <row r="622">
       <c r="B622" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C622">
@@ -8599,7 +8599,7 @@
     <row r="626">
       <c r="B626" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C626">
@@ -8742,7 +8742,7 @@
     <row r="637">
       <c r="B637" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C637">
@@ -8807,7 +8807,7 @@
     <row r="642">
       <c r="B642" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C642">
@@ -8820,7 +8820,7 @@
     <row r="643">
       <c r="B643" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C643">
@@ -8859,7 +8859,7 @@
     <row r="646">
       <c r="B646" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C646">
@@ -9046,7 +9046,7 @@
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C660">
@@ -9072,7 +9072,7 @@
     <row r="662">
       <c r="B662" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C662">
@@ -9111,7 +9111,7 @@
     <row r="665">
       <c r="B665" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C665">
@@ -9137,7 +9137,7 @@
     <row r="667">
       <c r="B667" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C667">
@@ -9163,7 +9163,7 @@
     <row r="669">
       <c r="B669" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C669">
@@ -9433,7 +9433,7 @@
     <row r="689">
       <c r="B689" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C689">
@@ -9472,7 +9472,7 @@
     <row r="692">
       <c r="B692" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C692">
@@ -9485,7 +9485,7 @@
     <row r="693">
       <c r="B693" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C693">
@@ -9524,7 +9524,7 @@
     <row r="696">
       <c r="B696" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C696">
@@ -9537,7 +9537,7 @@
     <row r="697">
       <c r="B697" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C697">
@@ -9550,7 +9550,7 @@
     <row r="698">
       <c r="B698" t="inlineStr">
         <is>
-          <t>Villa de la Paz</t>
+          <t>Villa De La Paz</t>
         </is>
       </c>
       <c r="C698">
@@ -9563,7 +9563,7 @@
     <row r="699">
       <c r="B699" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C699">
@@ -9942,7 +9942,7 @@
     <row r="727">
       <c r="B727" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C727">
@@ -10014,7 +10014,7 @@
         <v>44</v>
       </c>
       <c r="D732">
-        <v>0.009442060085836909</v>
+        <v>0.009442060085836907</v>
       </c>
     </row>
     <row r="733">
@@ -10272,7 +10272,7 @@
     <row r="752">
       <c r="B752" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C752">
@@ -10368,7 +10368,7 @@
       </c>
       <c r="B759" t="inlineStr">
         <is>
-          <t>Acuamanala de Miguel Hidalgo</t>
+          <t>Acuamanala De Miguel Hidalgo</t>
         </is>
       </c>
       <c r="C759">
@@ -10381,7 +10381,7 @@
     <row r="760">
       <c r="B760" t="inlineStr">
         <is>
-          <t>Amaxac de Guerrero</t>
+          <t>Amaxac De Guerrero</t>
         </is>
       </c>
       <c r="C760">
@@ -10433,7 +10433,7 @@
     <row r="764">
       <c r="B764" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C764">
@@ -10459,7 +10459,7 @@
     <row r="766">
       <c r="B766" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C766">
@@ -10563,7 +10563,7 @@
     <row r="774">
       <c r="B774" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C774">
@@ -10711,7 +10711,7 @@
     <row r="785">
       <c r="B785" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C785">
@@ -10763,7 +10763,7 @@
     <row r="789">
       <c r="B789" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C789">
@@ -10841,7 +10841,7 @@
     <row r="795">
       <c r="B795" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C795">
@@ -10932,7 +10932,7 @@
     <row r="802">
       <c r="B802" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C802">
@@ -11010,7 +11010,7 @@
     <row r="808">
       <c r="B808" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C808">
@@ -11023,7 +11023,7 @@
     <row r="809">
       <c r="B809" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C809">
@@ -11049,7 +11049,7 @@
     <row r="811">
       <c r="B811" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C811">
@@ -11062,7 +11062,7 @@
     <row r="812">
       <c r="B812" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C812">
@@ -11127,7 +11127,7 @@
     <row r="817">
       <c r="B817" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C817">
@@ -11179,7 +11179,7 @@
     <row r="821">
       <c r="B821" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C821">
@@ -11205,7 +11205,7 @@
     <row r="823">
       <c r="B823" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C823">
@@ -11335,7 +11335,7 @@
     <row r="833">
       <c r="B833" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C833">
@@ -11374,7 +11374,7 @@
     <row r="836">
       <c r="B836" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C836">
@@ -11452,7 +11452,7 @@
     <row r="842">
       <c r="B842" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C842">
@@ -11465,7 +11465,7 @@
     <row r="843">
       <c r="B843" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C843">
@@ -11647,7 +11647,7 @@
     <row r="857">
       <c r="B857" t="inlineStr">
         <is>
-          <t>Tlacotepec de Mejía</t>
+          <t>Tlacotepec De Mejía</t>
         </is>
       </c>
       <c r="C857">
@@ -11738,7 +11738,7 @@
     <row r="864">
       <c r="B864" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C864">
@@ -11904,7 +11904,7 @@
     <row r="876">
       <c r="B876" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C876">
@@ -11930,7 +11930,7 @@
     <row r="878">
       <c r="B878" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C878">
@@ -12073,7 +12073,7 @@
     <row r="889">
       <c r="B889" t="inlineStr">
         <is>
-          <t>Mezquital del Oro</t>
+          <t>Mezquital Del Oro</t>
         </is>
       </c>
       <c r="C889">
@@ -12125,7 +12125,7 @@
     <row r="893">
       <c r="B893" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C893">
@@ -12229,7 +12229,7 @@
     <row r="901">
       <c r="B901" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C901">
@@ -12255,7 +12255,7 @@
     <row r="903">
       <c r="B903" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C903">
@@ -12341,41 +12341,6 @@
       </c>
       <c r="D909">
         <v>1</v>
-      </c>
-    </row>
-    <row r="911">
-      <c r="A911" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 826,856</t>
-        </is>
-      </c>
-    </row>
-    <row r="912">
-      <c r="A912" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="913">
-      <c r="A913" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="914">
-      <c r="A914" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="915">
-      <c r="A915" t="inlineStr">
-        <is>
-          <t>Junio de 2018</t>
-        </is>
       </c>
     </row>
   </sheetData>
